--- a/Gaurav CV.xlsx
+++ b/Gaurav CV.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0decf4049fb47389/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0decf4049fb47389/Documentos/CV Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="8_{CE0B8B40-3763-4E80-B7CF-C88A822B1BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6516BCD-F927-4386-877E-7F93842940D0}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="8_{CE0B8B40-3763-4E80-B7CF-C88A822B1BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{503D27A0-B0EE-408B-957D-0C22F6E13FCE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A58DA4E-F6A0-4103-B08C-193AE6FFDE18}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{6A58DA4E-F6A0-4103-B08C-193AE6FFDE18}"/>
   </bookViews>
   <sheets>
     <sheet name="fctLifePhases" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="132">
   <si>
     <t>LifePhaseID</t>
   </si>
@@ -238,9 +238,6 @@
   </si>
   <si>
     <t>German</t>
-  </si>
-  <si>
-    <t>C2</t>
   </si>
   <si>
     <t>Power BI / DAX</t>
@@ -678,6 +675,30 @@
   </si>
   <si>
     <t>Joined Forvis Mazars as Performance Management Consultant</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>DAX Queries, Data Modeling, Dashboard Creation, Data Cleaning and Preparation</t>
+  </si>
+  <si>
+    <t>Pandas, Numpy, SQLalchemy</t>
+  </si>
+  <si>
+    <t>Advanced SQL Queries</t>
+  </si>
+  <si>
+    <t>Advanced VBA</t>
+  </si>
+  <si>
+    <t>Scikit</t>
+  </si>
+  <si>
+    <t>Functional roles</t>
+  </si>
+  <si>
+    <t>Goethe Institut - C2</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B30BB1-86AB-42DA-BC47-CFB03A6DFF5C}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1100,16 +1121,16 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
@@ -1144,7 +1165,7 @@
         <v>52</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
@@ -1152,22 +1173,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="D3" s="2">
         <v>300</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H3" s="4">
         <v>39600</v>
@@ -1176,10 +1197,10 @@
         <v>39994</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -1214,7 +1235,7 @@
         <v>9</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
@@ -1249,7 +1270,7 @@
         <v>39</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -1260,7 +1281,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" s="2">
         <v>102</v>
@@ -1284,7 +1305,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -1295,7 +1316,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D7" s="2">
         <v>102</v>
@@ -1319,7 +1340,7 @@
         <v>14</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="58" x14ac:dyDescent="0.35">
@@ -1354,7 +1375,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -1389,7 +1410,7 @@
         <v>9</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -1400,7 +1421,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="2">
         <v>102</v>
@@ -1424,7 +1445,7 @@
         <v>26</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -1459,7 +1480,7 @@
         <v>11</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="58" x14ac:dyDescent="0.35">
@@ -1470,7 +1491,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D12" s="2">
         <v>103</v>
@@ -1494,7 +1515,7 @@
         <v>28</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -1529,7 +1550,7 @@
         <v>9</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
@@ -1537,22 +1558,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="D14" s="2">
         <v>300</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>58</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H14" s="4">
         <v>45474</v>
@@ -1561,10 +1582,10 @@
         <v>45596</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -1599,7 +1620,7 @@
         <v>35</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1622,106 +1643,106 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1733,7 +1754,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461F03B4-7799-4D08-B8DC-2336DE970DE2}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1753,7 +1776,10 @@
         <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -1780,7 +1806,7 @@
         <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="D3">
         <v>90</v>
@@ -1793,13 +1819,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D4">
         <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>125</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -1809,13 +1838,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="D5">
         <v>70</v>
+      </c>
+      <c r="E5" t="s">
+        <v>126</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1825,13 +1857,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6">
         <v>90</v>
+      </c>
+      <c r="E6" t="s">
+        <v>127</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1841,13 +1876,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7">
         <v>90</v>
+      </c>
+      <c r="E7" t="s">
+        <v>128</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -1857,13 +1895,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8">
         <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>129</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -1873,13 +1914,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9">
         <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>130</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -1889,13 +1933,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10">
         <v>60</v>
+      </c>
+      <c r="E10" t="s">
+        <v>130</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -1905,10 +1952,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11">
         <v>100</v>
@@ -1919,10 +1966,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12">
         <v>95</v>
@@ -1933,10 +1980,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13">
         <v>90</v>
@@ -1947,10 +1994,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14">
         <v>95</v>
@@ -1993,7 +2040,7 @@
         <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2031,7 +2078,7 @@
     </row>
     <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>43</v>
@@ -2060,27 +2107,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2154,7 +2201,7 @@
         <v>300</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
